--- a/writing_aid_dataset.xlsx
+++ b/writing_aid_dataset.xlsx
@@ -20,399 +20,789 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1165">
   <si>
     <t xml:space="preserve">English</t>
   </si>
   <si>
+    <t xml:space="preserve">Luganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">december is the twelfth month of the year</t>
   </si>
   <si>
-    <t xml:space="preserve">mr. ddumba is our teacher for English</t>
+    <t xml:space="preserve">omweezi gwa museenene gwe mwezi ogw’ekkumi n’ebiri mu mwaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddumba is our teacher for English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddumba ye musomesa waffe ow'oluganda</t>
   </si>
   <si>
     <t xml:space="preserve">where are you going</t>
   </si>
   <si>
+    <t xml:space="preserve">ogenda wa</t>
+  </si>
+  <si>
     <t xml:space="preserve">when i was going to kampala i saw kalerwe market</t>
   </si>
   <si>
+    <t xml:space="preserve">bwe nali ngenda e kampala nalaba akatale ka kalerwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">kasanje is my sub-county</t>
   </si>
   <si>
+    <t xml:space="preserve">kasanje ye sub-county yange</t>
+  </si>
+  <si>
     <t xml:space="preserve">gayaza junior school is found in wakiso district</t>
   </si>
   <si>
+    <t xml:space="preserve">gayaza junior school esangibwa mu disitulikiti y'e wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">river nile is the longest river in Africa</t>
   </si>
   <si>
+    <t xml:space="preserve">river nile gwe mugga ogusinga obuwanvu mu Africa</t>
+  </si>
+  <si>
     <t xml:space="preserve">that is moses house</t>
   </si>
   <si>
+    <t xml:space="preserve">eyo ye nnyumba ya moses</t>
+  </si>
+  <si>
     <t xml:space="preserve">thursday comes after wednesday</t>
   </si>
   <si>
+    <t xml:space="preserve">olw’okuna lujja oluvannyuma lw’Olwokusatu</t>
+  </si>
+  <si>
     <t xml:space="preserve">teacher mary teaches english and luganda</t>
   </si>
   <si>
+    <t xml:space="preserve">omusomesa mary asomesa olungereza n'oluganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">that chair belongs to our teacher</t>
   </si>
   <si>
-    <t xml:space="preserve">she has taken the books which belong to my grandmother</t>
+    <t xml:space="preserve">entebe eyo ya musomesa waffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she has taken the books belonging to my grandmother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atutte ebitabo ebya jjajja</t>
   </si>
   <si>
     <t xml:space="preserve">christians are followers of Jesus</t>
   </si>
   <si>
+    <t xml:space="preserve">abakristu bagoberezi ba Yesu</t>
+  </si>
+  <si>
     <t xml:space="preserve">ritah owns that bag</t>
   </si>
   <si>
+    <t xml:space="preserve">ritah ye nnannyini nsawo eyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">these pens belong to the girls</t>
   </si>
   <si>
+    <t xml:space="preserve">ekkalaamu zino za bawala</t>
+  </si>
+  <si>
     <t xml:space="preserve">her daughter is so careful</t>
   </si>
   <si>
+    <t xml:space="preserve">muwala we mwegendereza nnyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">our class teacher advised us to wear clean uniforms</t>
   </si>
   <si>
+    <t xml:space="preserve">omusomesa waffe mu kibiina yatuwa amagezi okwambala yunifoomu ennyonjo</t>
+  </si>
+  <si>
     <t xml:space="preserve">the children are very happy today</t>
   </si>
   <si>
+    <t xml:space="preserve">abaana basanyufu nnyo olwaleero</t>
+  </si>
+  <si>
     <t xml:space="preserve">the calves are playing with the bull</t>
   </si>
   <si>
+    <t xml:space="preserve">ennyana zizannya n’ente ennume</t>
+  </si>
+  <si>
     <t xml:space="preserve">the girls went home laughing</t>
   </si>
   <si>
+    <t xml:space="preserve">abawala baddayo eka nga baseka</t>
+  </si>
+  <si>
     <t xml:space="preserve">moses is a very hardworking man</t>
   </si>
   <si>
+    <t xml:space="preserve">moses musajja mukozi nnyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">emilly is beautiful</t>
   </si>
   <si>
+    <t xml:space="preserve">emilly mulungi nnyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">there is some water in the flask</t>
   </si>
   <si>
+    <t xml:space="preserve">waliwo amazzi mu fulasika</t>
+  </si>
+  <si>
     <t xml:space="preserve">her father is our village chairman</t>
   </si>
   <si>
+    <t xml:space="preserve">kitaawe ye ssentebe waffe ku kyalo</t>
+  </si>
+  <si>
     <t xml:space="preserve">here is the girl</t>
   </si>
   <si>
+    <t xml:space="preserve">wuuno omuwala</t>
+  </si>
+  <si>
     <t xml:space="preserve">my mother’s mother died two years back</t>
   </si>
   <si>
+    <t xml:space="preserve">maama wa maama yafa emyaka ebiri egiyise</t>
+  </si>
+  <si>
     <t xml:space="preserve">teachers are important</t>
   </si>
   <si>
+    <t xml:space="preserve">abasomesa bakulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">doctors are important</t>
   </si>
   <si>
+    <t xml:space="preserve">abasawo bakulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">pupils went back home</t>
   </si>
   <si>
+    <t xml:space="preserve">abayizi bazzeeyo eka</t>
+  </si>
+  <si>
     <t xml:space="preserve">there was corona virus outbreak</t>
   </si>
   <si>
+    <t xml:space="preserve">wabaddewo okubutuka kw'akawuka ka corona</t>
+  </si>
+  <si>
     <t xml:space="preserve">i like jackfruit more than apples</t>
   </si>
   <si>
+    <t xml:space="preserve">njagala nnyo fenne okusinga apples</t>
+  </si>
+  <si>
     <t xml:space="preserve">he went to the hospital</t>
   </si>
   <si>
+    <t xml:space="preserve">yagenze mu ddwaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">he did not see the doctor</t>
   </si>
   <si>
+    <t xml:space="preserve">teyalabye ku musawo</t>
+  </si>
+  <si>
     <t xml:space="preserve">daphine was born in december</t>
   </si>
   <si>
+    <t xml:space="preserve">daphine yazaalibwa mu mweezi gwa museenene</t>
+  </si>
+  <si>
     <t xml:space="preserve">peter went to town yesterday</t>
   </si>
   <si>
-    <t xml:space="preserve">her book was blown away by wind</t>
+    <t xml:space="preserve">peter yagenze mu kibuga jjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">her book was blown away by the wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ekitabo kye kyafuumuulwa empewo</t>
   </si>
   <si>
     <t xml:space="preserve">rose was going to school when she met her friend</t>
   </si>
   <si>
+    <t xml:space="preserve">rose yali agenda ku ssomero bwe yasisinkana mukwano gwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">this is the goat which ate my hankie</t>
   </si>
   <si>
-    <t xml:space="preserve">dorcus is old enough to carrt this bag</t>
+    <t xml:space="preserve">eno ye mbuzi eyalya hankie yange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dorcus is old enough to carry this bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dorcus mukadde nnyo okusobola okusitula ensawo eno</t>
   </si>
   <si>
     <t xml:space="preserve">the tea is too hot to take</t>
   </si>
   <si>
+    <t xml:space="preserve">caayi ayokya nnyo okutwala</t>
+  </si>
+  <si>
     <t xml:space="preserve">these are apples</t>
   </si>
   <si>
+    <t xml:space="preserve">zino apples</t>
+  </si>
+  <si>
     <t xml:space="preserve">the pen is so expensive that mummy cannot buy it</t>
   </si>
   <si>
-    <t xml:space="preserve">the tearcher was teaching us yesterday</t>
+    <t xml:space="preserve">ekkalaamu ya bbeeyi nnyo nga mummy tayinza kugigula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the teacher was teaching us yesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omusomesa yabadde atusomesa jjo</t>
   </si>
   <si>
     <t xml:space="preserve">the baby has not eaten any food today</t>
   </si>
   <si>
+    <t xml:space="preserve">omwana leero tannalya mmere yonna</t>
+  </si>
+  <si>
     <t xml:space="preserve">what do you do when there are mosquitoes in home?</t>
   </si>
   <si>
+    <t xml:space="preserve">okola ki nga waliwo ensiri mu maka?</t>
+  </si>
+  <si>
     <t xml:space="preserve">i spray my home when there are mosquitoes</t>
   </si>
   <si>
+    <t xml:space="preserve">nfuuyira awaka wange nga waliwo ensiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">i sleep under a mosquito net</t>
   </si>
   <si>
+    <t xml:space="preserve">nsula wansi w’akatimba k’ensiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">we slash the tall grass around our home</t>
   </si>
   <si>
+    <t xml:space="preserve">tusala omuddo omuwanvu ogwetoolodde amaka gaffe</t>
+  </si>
+  <si>
     <t xml:space="preserve">what do you do when you get an accident?</t>
   </si>
   <si>
+    <t xml:space="preserve">okola ki nga ofunye akabenje?</t>
+  </si>
+  <si>
     <t xml:space="preserve">i go to the hospital when I get an accident</t>
   </si>
   <si>
+    <t xml:space="preserve">ngenda mu ddwaaliro nga nfunye akabenje</t>
+  </si>
+  <si>
     <t xml:space="preserve">we make an alarm when we get an accident</t>
   </si>
   <si>
+    <t xml:space="preserve">tukola alamu nga tufunye akabenje</t>
+  </si>
+  <si>
     <t xml:space="preserve">what do you do when there is a storm?</t>
   </si>
   <si>
+    <t xml:space="preserve">okola ki nga waliwo omuyaga?</t>
+  </si>
+  <si>
     <t xml:space="preserve">i take shelter when there is a storm</t>
   </si>
   <si>
+    <t xml:space="preserve">nfuna ewo kweggama nga waliwo omuyaga</t>
+  </si>
+  <si>
     <t xml:space="preserve">we run home very fast when there is a storm</t>
   </si>
   <si>
+    <t xml:space="preserve">tudduka awaka mangu nnyo nga waliwo omuyaga</t>
+  </si>
+  <si>
     <t xml:space="preserve">melu used to go to school alone</t>
   </si>
   <si>
+    <t xml:space="preserve">melu yali agenda ku ssomero yekka</t>
+  </si>
+  <si>
     <t xml:space="preserve">one day, she saw a very tall man standing in the forest. he was holding a panga</t>
   </si>
   <si>
+    <t xml:space="preserve">olunaku lumu, yalaba omusajja omuwanvu ennyo ng’ayimiridde mu kibira. yali akutte jambiya</t>
+  </si>
+  <si>
     <t xml:space="preserve">melu was scared. she started running. the man chased her</t>
   </si>
   <si>
+    <t xml:space="preserve">melu yali atidde. yatandika okudduka. omusajja n’amugoba</t>
+  </si>
+  <si>
     <t xml:space="preserve">melu made an alarm. many people ran to help her. they chased the man. one man called the police using his telephone</t>
   </si>
   <si>
+    <t xml:space="preserve">melu yakola alamu. abantu bangi badduka okumuyamba. baagoba omusajja. omusajja omu yakubira poliisi ng’akozesa essimu ye</t>
+  </si>
+  <si>
     <t xml:space="preserve">policemen and police women caught the man. they took him to the police station in a police car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abapoliisi n’abakazi ba poliisi baakutte omusajja ono. Baamututte ku poliisi mu mmotoka ya poliisi</t>
   </si>
   <si>
     <t xml:space="preserve">on the way, there was a lot of mud. the car got stuck. melu pushed the car out of the
 mud</t>
   </si>
   <si>
+    <t xml:space="preserve">mu kkubo, waaliwo ebitosi bingi. mmotoka yasibye. melu yasika mmotoka okuva mu bitoomi</t>
+  </si>
+  <si>
     <t xml:space="preserve">what are economic activities?</t>
   </si>
   <si>
+    <t xml:space="preserve">emirimu gy’ebyenfuna bye biruwa?</t>
+  </si>
+  <si>
     <t xml:space="preserve">identify any four economic activities done by people in your sub-county</t>
   </si>
   <si>
+    <t xml:space="preserve">zuula emirimu gyonna ena egy’ebyenfuna egikolebwa abantu mu sub-county yo</t>
+  </si>
+  <si>
     <t xml:space="preserve">why do people in your area carry out such activities?</t>
   </si>
   <si>
+    <t xml:space="preserve">lwaki abantu mu kitundu kyo bakola emirimu egyo?</t>
+  </si>
+  <si>
     <t xml:space="preserve">which economic activity is commonly done on lakes and rivers?</t>
   </si>
   <si>
+    <t xml:space="preserve">mulimu ki ogw’ebyenfuna ogutera okukolebwa ku nnyanja n’emigga?</t>
+  </si>
+  <si>
     <t xml:space="preserve">who is a potter?</t>
   </si>
   <si>
+    <t xml:space="preserve">ani omubumbi?</t>
+  </si>
+  <si>
     <t xml:space="preserve">name the raw material used by a potter to make his craft</t>
   </si>
   <si>
+    <t xml:space="preserve">tuuma erinnya ekigimusa omubumbi ky’akozesa okukola omulimu gwe ogw’emikono</t>
+  </si>
+  <si>
     <t xml:space="preserve">how important is a swamp to a potter?</t>
   </si>
   <si>
+    <t xml:space="preserve">olutobazzi kikulu kitya eri omubumbi?</t>
+  </si>
+  <si>
     <t xml:space="preserve">how can we preserve fish?</t>
   </si>
   <si>
+    <t xml:space="preserve">tuyinza tutya okukuuma ebyennyanja?</t>
+  </si>
+  <si>
     <t xml:space="preserve">list down any three means of road transport</t>
   </si>
   <si>
+    <t xml:space="preserve">wandiika wansi engeri zonna ssatu ez’entambula y’oku nguudo</t>
+  </si>
+  <si>
     <t xml:space="preserve">why do parents need money?</t>
   </si>
   <si>
+    <t xml:space="preserve">lwaki abazadde beetaaga ssente?</t>
+  </si>
+  <si>
     <t xml:space="preserve">mention any one group of people who maintain security at school</t>
   </si>
   <si>
+    <t xml:space="preserve">yogera ku kibinja kyonna ekimu eky’abantu abakuuma obukuumi ku ssomero</t>
+  </si>
+  <si>
     <t xml:space="preserve">state any two causes of problems between the school and its neighborhood</t>
   </si>
   <si>
+    <t xml:space="preserve">yogera ebibiri byonna ebivaako obuzibu wakati w’essomero n’ekitundu kyalyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">give any two ways the school can prevent problems with its neighbors</t>
   </si>
   <si>
+    <t xml:space="preserve">waayo engeri yonna ebbiri essomero gye liyinza okutangira ebizibu ne baliraanwa baayo</t>
+  </si>
+  <si>
     <t xml:space="preserve">why is luganda the commonest language spoken by the people of kyaddondo county?</t>
   </si>
   <si>
+    <t xml:space="preserve">lwaki luganda lwe lulimi olusinga okwogerwa abantu be kyaddondo county?</t>
+  </si>
+  <si>
     <t xml:space="preserve">passover is a Jewish holiday that remembers and celebrates their liberation from ancient Egyptian slavery as described in the Old Testament of the Bible.</t>
   </si>
   <si>
+    <t xml:space="preserve">okuyitako lunaku lwa Bayudaaya olujjukiza n’okujaguza okusumululwa kwabwe okuva mu buddu bw’Abamisiri ab’edda nga bwe kyayogerwako mu ndagaano enkadde eya Baibuli.</t>
+  </si>
+  <si>
     <t xml:space="preserve">it is traditionally celebrated in the spring and lasts about a week</t>
   </si>
   <si>
+    <t xml:space="preserve">kikuzibwa mu buwangwa mu biseera by’omusana era kimala wiiki nga emu</t>
+  </si>
+  <si>
     <t xml:space="preserve">according to the story in the Bible, god punished ancient Egypt with 10 plagues</t>
   </si>
   <si>
+    <t xml:space="preserve">okusinziira ku mboozi eri mu Baibuli, katonda yabonereza Misiri ey’edda n’ebibonyoobonyo 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">jewish people were told to mark their doors with lamb's blood so that God would know to pass over these houses and not kill any first-born males inside. this is where the name of the holiday, Passover, comes from</t>
   </si>
   <si>
+    <t xml:space="preserve">abantu b’abayudaaya baategeezebwa okussaako akabonero ku nzigi zaabwe n’omusaayi gw’endiga Katonda asobole okumanya okuyita ku mayumba gano n’atatta munda musajja mubereberye yenna. wano erinnya ly’ennaku enkulu, Okuyitako, we liva</t>
+  </si>
+  <si>
     <t xml:space="preserve">please can you use the washing machine in the daytime only as it's old and noisy</t>
   </si>
   <si>
+    <t xml:space="preserve">nsaba osobola okukozesa ekyuma eky'okwoza engoye emisana gyokka nga bwe kikadde ate nga kirimu amaloboozi</t>
+  </si>
+  <si>
     <t xml:space="preserve">would you mind opening all the upstairs windows for an hour in the morning as the house gets damp at this time of year?</t>
   </si>
   <si>
+    <t xml:space="preserve">ofaayo okuggulawo amadirisa gonna ag’oku mwaliiro ogw’okungulu okumala essaawa emu ku makya kubanga ennyumba efuna obunnyogovu mu kiseera kino eky’omwaka?</t>
+  </si>
+  <si>
     <t xml:space="preserve">hope to see you briefly to hand over the keys on Saturday morning. i am looking forward to a proper chat when we get back</t>
   </si>
   <si>
+    <t xml:space="preserve">nsuubira okukulaba mu bufunze okukwasa ebisumuluzo ku Lwomukaaga ku makya. Nneesunga okunyumya okutuufu nga tukomyewo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hong Kong is a dream destination for business travelers</t>
   </si>
   <si>
+    <t xml:space="preserve">Hong Kong kifo kya kirooto eri aba bizinensi abatambuza</t>
+  </si>
+  <si>
     <t xml:space="preserve">with more skyscrapers than any other city in the world and some of the finest dining on the planet, the city might well leave you begging for a flight cancellation so you can squeeze in an extra day</t>
   </si>
   <si>
-    <t xml:space="preserve">trains are clean, comfortable, spacious, always on time and get you to the city in 24 minutes flat, faster than any car service can ever aspire to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bob knew that the house he just purchased was in a historically rough neighborhood. </t>
+    <t xml:space="preserve">nga mulimu ebizimbe ebiwanvu okusinga ekibuga ekirala kyonna mu nsi yonna n’ebimu ku bifo eby’okulya ebisinga obulungi ku nsi, ekibuga kino kiyinza bulungi okukuleka ng’osabiriza ennyonyi okusazaamu osobole okusika mu lunaku olulala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trains are clean, comfortable, spacious, always on time and get you to the city in 24 minutes, faster than any car service can ever aspire to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eggaali z’omukka nnyonjo, nnungi, ngazi, bulijjo zituuka mu budde era zikutuusa mu kibuga mu ddakiika 24, nga zisinga ku mpeereza yonna ey’emmotoka gy’esobola okwagala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bob knew that the house he just purchased was in a rough neighborhood. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bob yali akimanyi nti ennyumba gye yaakagula yali mu kitundu ekikalu.</t>
   </si>
   <si>
     <t xml:space="preserve">there was a history of gang violence, including shootings, in the neighborhood. that is probably why the house was so inexpensive</t>
   </si>
   <si>
-    <t xml:space="preserve">the previous owners of the house had it foreclosed. then some house flippers bought the property for a very cheap price, renovated it, raised the sales price, and sold it. bob thought the house was still a good bargain though</t>
+    <t xml:space="preserve">waaliwo ebyafaayo by’obutabanguko mu bibinja, omuli n’okukuba amasasi, mu kitundu ekyo. osanga y’ensonga lwaki ennyumba yali ya bbeeyi ntono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the previous owners of the house had it foreclosed. then some house flippers bought the property for a very cheap price, renovated it, raised the sales price, and sold it. Though bob thought the house was still a good deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bannannyini nnyumba eno abaaliwo baali bagitwala. olwo abamu ku ba flippers z’amayumba baagula ekifo ekyo ku bbeeyi ya layisi nnyo, ne bakiddaabiriza, ne balinnyisa bbeeyi y’okutunda, ne bakitunda. Wadde bob yalowooza nti ennyumba ekyali ddiiru ennungi</t>
   </si>
   <si>
     <t xml:space="preserve">after he moved in, bob began to see that many of the renovations to the home were merely cosmetic. while the house flippers put in new stainless steel appliances in the kitchen, they hadn't upgraded the electrical work. This meant that every time bob ran the dishwasher and the coffee machine, all the power in the house went out</t>
   </si>
   <si>
+    <t xml:space="preserve">oluvannyuma lw’okusenguka, bob yatandika okulaba nti bingi ku bintu eby’okuddaabiriza amaka gano byali bya kwewunda kwokka. ate nga ba flippers b’ennyumba bateekamu ebyuma ebipya eby’ekyuma ekitali kizimbulukuse mu ffumbiro, baali tebannalongoosa mulimu gwa masannyalaze. Kino kyali kitegeeza nti buli bob lwe yaddukanga ekyuma eky’okunaaza amasowaani n’ekyuma kya kaawa, amasannyalaze gonna mu nnyumba gaazikira</t>
+  </si>
+  <si>
     <t xml:space="preserve">within two years, all the changes bob made to the house totaled more than twenty thousand dollars. in that time the value of his home rose almost one hundred thousand dollars. bob felt he made a good investment. he knew when he sold the home, he would get more money than he paid</t>
   </si>
   <si>
+    <t xml:space="preserve">mu myaka ebiri, enkyukakyuka zonna bob ze yakola mu nnyumba zonna awamu zaali zisoba mu mitwalo gya ddoola abiri. mu kiseera ekyo omuwendo gw’amaka ge gwalinnya kumpi ddoola emitwalo kikumi. bob yawulira nga yakola investment ennungi. yali akimanyi nti bw’anaatunda amaka, ajja kufuna ssente nnyingi okusinga ze yasasula</t>
+  </si>
+  <si>
     <t xml:space="preserve">mother's day is a holiday that celebrates and honors mothers in the United States. It is celebrated on the second Sunday in May. It became an official holiday in the country at the start of the twentieth century as a way to honor mothers whose sons had died in war</t>
   </si>
   <si>
+    <t xml:space="preserve">olunaku lwa bamaama lukujjukujju olukuza n'okussa ekitiibwa mu bamaama mu Amerika. Gukuzibwa ku Ssande eyookubiri mu May. Yafuuka nnaku enkulu entongole mu ggwanga ku ntandikwa y’ekyasa eky’amakumi abiri ng’engeri y’okussa ekitiibwa mu bamaama batabani baabwe abaafiiridde mu lutalo</t>
+  </si>
+  <si>
     <t xml:space="preserve">People give mothers gifts like flowers, cards, and jewelry to thank them for all their hard work. A popular symbol of the holiday is the carnation. This is because when the holiday first began in the U.S. people were encouraged to wear a red carnation if their mother was alive or a white carnation if their mother was dead. Many people take their mothers out for a special meal. In fact, Mother's Day is the most popular date in the U.S. for people to go out and eat and it is estimated that people spend billions on meals and gifts. Mother's Day is also the most popular day to make long distance calls in the U.S. It is the second most popular gift-giving day after Christmas.</t>
   </si>
   <si>
+    <t xml:space="preserve">Abantu bawa bamaama ebirabo ng’ebimuli, kaadi, n’amajolobero okubasiima olw’okukola ennyo. Akabonero akamanyiddwa ennyo ak’ennaku enkulu ye carnation. Kino kiri bwe kityo kubanga ennaku enkulu bwe zaasooka okutandika mu U.S. abantu baakubirizibwa okwambala carnation emmyufu singa nnyina aba mulamu oba carnation enjeru singa nnyina aba afudde. Abantu bangi batwala bannyaabwe ku mmere ey’enjawulo. Mu butuufu, olunaku lwa bamaama lwe lunaku olusinga okwettanirwa mu U.S. abantu okufuluma ne balya era kiteeberezebwa nti abantu basaasaanya obuwumbi ku mmere n’ebirabo. Olunaku lwa bamaama era lwe lunaku olusinga okwettanirwa okukuba essimu ez’ewala mu U.S. Luno lwe lunaku olw’okubiri mu kugaba ebirabo oluvannyuma lwa Ssekukkulu.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mothers are not the only people celebrated on this day. All mother figures including grandmothers, great-grandmothers, stepmothers, and foster mothers are honored on the holiday. In schools many students make special gifts, including handmade cards. While widely recognized, Mother's Day is not a federal holiday. Many other countries around the world have their own version of Mother's Day.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ba maama si be bantu bokka abakuzibwa ku lunaku luno. Ba maama bonna omuli ba jjajja, ba jjajja, ba stepmother, ne ba maama abakuza baweebwa ekitiibwa mu nnaku enkulu. Mu masomero abayizi bangi bakola ebirabo eby’enjawulo omuli ne kaadi ezikoleddwa n’emikono. Wadde nga lumanyiddwa nnyo, olunaku lwa bamaama si lunaku lwa federo. Amawanga amalala mangi okwetoloola ensi yonna galina enkyusa yaabwe ku lunaku lwa bamaama.</t>
+  </si>
+  <si>
     <t xml:space="preserve">California is the largest state in the United States of America. It is home to more than 10 percent of the country's total population. It also has the largest education system in the country. The college and university system is divided into four parts. Those parts are the University of California system, the California State University system, the community college system, and private institutions.</t>
   </si>
   <si>
+    <t xml:space="preserve">California ye ssaza erisinga obunene mu Amerika. Mulimu abantu abasoba mu kkumi ku buli kikumi ku bantu bonna mu ggwanga. Era erina enkola y’ebyenjigiriza esinga obunene mu ggwanga. Enkola y’amatendekero ne yunivasite egabanyizibwamu ebitundu bina. Ebitundu ebyo ye nkola ya Yunivasite y’e California, enkola ya California State University, enkola y’amatendekero g’omukitundu, n’amatendekero ag’obwannannyini.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sean Edwards, one of Britain's most promising racing drivers, has been killed in a crash at the Queensland Raceway in Australia.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sean Edwards omu ku bavuzi b’emmotoka z’empaka abasinga okusuubiza mu Bungereza afiiridde mu kabenje akagudde ku luguudo lw’e Queensland Raceway mu Australia.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edwards, was the son of former Formula One driver Guy Edwards and played the role of his father in the recently-released movie Rush.</t>
   </si>
   <si>
+    <t xml:space="preserve">Edwards, yali mutabani w’eyali ddereeva wa Formula One Guy Edwards era yazannya ekifo kya kitaawe mu firimu ya Rush eyafuluma gye buvuddeko.</t>
+  </si>
+  <si>
     <t xml:space="preserve">John Lennon is one of the most complex individuals ever to walk the face of the earth. The British-born musician is a true international icon who influenced the world with his message of peace and love. In America, Lennon is one of the most loved people to ever call the United States home.</t>
   </si>
   <si>
+    <t xml:space="preserve">John Lennon y’omu ku bantu ab’enjawulo ababadde batambulira ku nsi. Omuyimbi ono enzaalwa y’e Bungereza muyimbi wa mazima mu nsi yonna eyakwata ensi yonna n’obubaka bwe obw’emirembe n’omukwano. Mu Amerika, Lennon y’omu ku bantu abasinga okwagalibwa okuyita Amerika amaka.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lennon was one of the founding members of the international super group, the Beatles. He, along with Paul McCartney, formed the early creative brain trust of a group that changed music worldwide. The group’s success has never been duplicated, and its music is as popular today as it was in the seventies.</t>
   </si>
   <si>
+    <t xml:space="preserve">Lennon y’omu ku baatandikawo ekibiina ky’ensi yonna ekya super group, Beatles. Ye, wamu ne Paul McCartney, baatandikawo ekibiina ekyasooka okuyiiya obwongo obw’ekibiina ekyakyusa ennyimba mu nsi yonna. Obuwanguzi bw’ekibiina kino tebukoppa, era omuziki gwakyo gwettanirwa nnyo leero nga bwe gwali mu myaka gya nsanvu.</t>
+  </si>
+  <si>
     <t xml:space="preserve">His views on religion and politics caused a great deal of controversy in the United States. He was an outspoken critic of the country’s involvement in the Vietnam conflict. His popularity caused great concern with government officials because he had the attention of the young people in America at the time.</t>
   </si>
   <si>
+    <t xml:space="preserve">Endowooza ze ku ddiini n’ebyobufuzi zaaleetawo okusika omuguwa kungi mu Amerika. Yali muvumirira nnyo eggwanga lino okwenyigira mu lutalo lw’e Vietnam. Obuganzi bwe bwaleetera abakungu ba gavumenti okweraliikirira nnyo kubanga yalina okufaayo kw’abavubuka mu Amerika mu kiseera ekyo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">One of the pleasures of flying is seeing clouds close up. Even though they seem insubstantial they carry a considerable weight of water – around five hundred tonnes in a small cumulus cloud. And water is denser than air. So why don’t clouds fall out of the sky like rain? They do. But the droplets take a long time to sink. An average cloud would take a year to fall one metre.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ekimu ku bisanyusa mu kubuuka ennyonyi kwe kulaba ebire nga biggadde. Newankubadde nga zirabika nga tezirina makulu zitwala obuzito bw’amazzi obw’amaanyi – nga ttani ebikumi bitaano mu kire ekitono ekya cumulus. Era amazzi gazitowa okusinga empewo. Kale lwaki ebire tebigwa mu bbanga ng’enkuba? Bakikola. Naye obutonnyeze butwala ekiseera kiwanvu okubbira. Ekire ekya wakati kyanditwalidde omwaka mulamba okugwa mita emu.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The world is divided into time zones. The result is that long-haul travel results in a difference between local time and your body’s time, causing jet lag. However, its effects can be minimized by keeping food bland for twenty four hours before travel, drinking plenty of fluids and living on your destination time from the moment you reach the aircraft.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ensi egabanyizibwamu ebitundu by’obudde. Ekivaamu kwe kuba nti okutambula olugendo oluwanvu kivaamu enjawulo wakati w’obudde bw’ekitundu n’obudde bw’omubiri gwo, ekivaako jet lag. Wabula ebizibu byakyo bisobola okukendeezebwa ng’okuuma emmere nga nnungi okumala essaawa abiri mu nnya nga tonnatambula, ng’onywa amazzi amangi n’okubeera ku budde bw’ogenda okuva lw’otuuse mu nnyonyi.</t>
+  </si>
+  <si>
     <t xml:space="preserve">President Museveni has demanded answers from security forces, a day after an Indian money lender was coldly shot dead by a policeman- amidst new cases of alarming gun violence reported in Uganda's capital on Saturday.</t>
   </si>
   <si>
-    <t xml:space="preserve">CCTV video footage obtained by police clearly showed runaway suspect PC Ivan Wabwire opening fire at Uttam Bhandari in a horrific office shooting inside Raja Chambers along Parliamentary Avenue in Kampala. The shooter who was not neutralized then swiftly moved to the nearby Central Police Station (CPS) and surrendered the killer gun before he vanished.</t>
+    <t xml:space="preserve">PULEZIDENTI Museveni asabye ab’ebyokwerinda baddibwemu, nga wayise olunaku lumu ng’omuyindi omuwozi wa ssente akubiddwa omupoliisi amasasi mu bukambwe- wakati mu misango emipya egy’effujjo ery’entiisa ery’emmundu egyaloopeddwa mu kibuga ekikulu ekya Uganda ku Lwomukaaga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTV video footage obtained by police clearly showed runaway suspect PC Ivan Wabwire opening fire at Uttam Bhandari in a horrific office shooting inside Raja Chambers along Parliamentary Avenue in Kampala. The shooter who was not neutralized then swiftly moved to the nearby Central Police Station and surrendered the killer gun before he vanished.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akatambi ka CCTV akaafunye poliisi kalaga bulungi omutemu eyadduka PC Ivan Wabwire ng’akuba Uttam Bhandari amasasi mu ofiisi ey’entiisa ng’akuba amasasi munda mu Raja Chambers ku luguudo lwa Parliamentary Avenue mu Kampala. Omukubi w’amasasi ataafunye buzibu olwo n’agenda mangu n’agenda ku Central Police Station eyali okumpi n’awaayo emmundu y’omutemu nga tannabula.</t>
   </si>
   <si>
     <t xml:space="preserve">A tragic irony of African history is that despite Mama Winnie’s life-long selfless service to her people, the post-apartheid government of South Africa barely accorded her recognition commensurate to her contributions to and sacrifices for the struggle, until after she passed on.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ekisesa eky’ennaku mu byafaayo bya Afrika kiri nti wadde nga Maama Winnie yaweereza abantu be obulamu bwe bwonna nga teyeefaako yekka, gavumenti ya South Afrika eyava mu kusosola mu mawanga teyamuwa kitiibwa ekigeraageranye n’ebintu bye yakola mu lutalo luno n’okwefiiriza, okutuusa lwe yamala okuyitawo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">It is a tragic irony in a double sense. In the first place, all over Africa, there is no greater affront than demeaning a mother. Yet despite the fact that it was on her almighty soul and shoulders that the aspirations of millions rested for more than three decades, a number of people have treated Mama Winnie as simply an appendage of her former and late husband, while others have even attempted to revile her by questioning her moral character.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiba kisekererwa kya nnaku mu ngeri ya mirundi ebiri. Mu kusooka, mu Afrika yonna, tewali kuvuma kusinga kunyooma maama. Naye wadde nga ku mwoyo gwe omuyinza w’ebintu byonna n’ebibegabega bye ebirowoozo by’obukadde n’obukadde bye byawummulira okumala emyaka egisukka mu makumi asatu, abantu abawerako bayisizza Maama Winnie ng’ekintu kyokka eky’okugattako eky’eyali bba n’omugenzi, ate abalala batuuse n’okugezaako bamuvuma nga babuusabuusa empisa ze.</t>
+  </si>
+  <si>
     <t xml:space="preserve">And second, it is rather disorienting, if not disheartening, that those who have cast aspersions on her moral character when she was alive, are people who could not have withstood one-hundredth of what Mama Winnie was subjected to by the apartheid regime. Now to add salt unto injury, they profess to love her with a fierce sense of collective and even personal loss.</t>
   </si>
   <si>
+    <t xml:space="preserve">Era ekyokubiri, kisinga kuwugula, bwe kiba nga tekimalamu maanyi, nti abo abamusuddemu ebigambo ebivuma ku mpisa ze ng’akyali mulamu, be bantu abatayinza kugumira kimu kya kikumi eky’ebyo Maama Winnie bye yayitamu enfuga y’obusosoze. Kati okwongera omunnyo ku buvune, bagamba nti bamwagala n’okufiirwa okw’amaanyi okw’okufiirwa okw’omuggundu era n’okufiirwa okw’obuntu.</t>
+  </si>
+  <si>
     <t xml:space="preserve">To use an African expression, such detractors of Mama Winnie or what my Pan-Africanist comrade Sihaka Tsemo refers to as Negropeans, have no shame in shedding crocodile tears. But they cannot fool all the people all the times.</t>
   </si>
   <si>
-    <t xml:space="preserve">But the refusal to give Mama Winnie her more than well-deserved formal political recognition could also be attributed to what Amilcar Cabral, the razor-sharp theorist of the African revolution, characterised as the cancer of betrayal, which he maintained served the ignoble cause of neo-colonialism, by gnawing away at African revolutionary movements.</t>
+    <t xml:space="preserve">Okukozesa ekigambo ky’Olufirika, abavumirira Maama Winnie ng’abo oba munnange ow’e Pan-Africanist Sihaka Tsemo ky’ayogerako ng’Abazungu, tebalina nsonyi mu kuyiwa maziga ga nsolo. Naye tebasobola kulimba bantu bonna buli kiseera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But the refusal to give Mama Winnie her more than well-deserved formal political recognition could also be attributed to what Amilcar Cabral, the razor-sharp theorist of the African revolution, characterised as the cancer of betrayal, which he believed served the ignoble cause of neo-colonialism, by gnawing away at African revolutionary movements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naye okugaana okuwa Maama Winnie okusiimibwa mu byobufuzi mu butongole okusinga ku kumugwanidde nakyo kiyinza okuva ku ekyo Amilcar Cabral, omukugu mu by’enkyukakyuka mu Afrika, kye yayogerako nga kookolo w’okulya mu nsi olukwe, kye yali alowooza nti kyaweereza ensonga etali ya kitiibwa neo-colonialism, nga baluma ebibiina by’enkyukakyuka mu Afirika.</t>
   </si>
   <si>
     <t xml:space="preserve">It is worth quoting what Amilcar Cabral stated at the state funeral of Kwame Nkrumah in Conakry, Guinea on May thirteenth, 1972, because it might apply with equal force to Mama Winnie’s situation. He declared, “Let no one tell us that Nkrumah died of a cancer to the throat or some other disease. No; Nkrumah has been killed by the cancer of betrayal that we should uproot.”</t>
   </si>
   <si>
+    <t xml:space="preserve">Kirungi okujuliza Amilcar Cabral bye yayogera mu kuziika kwa gavumenti okwa Kwame Nkrumah mu Conakry, Guinea nga May kkumi n’esatu, 1972, kubanga kiyinza okukwata n’amaanyi ag’enkanankana ku mbeera ya Maama Winnie. Yalangirira nti, “Tewali atugamba nti Nkrumah yafa kookolo w’emimiro oba obulwadde obulala. Nedda; Nkrumah attiddwa kookolo w’okulya mu nsi olukwe gwe tulina okusimbula.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Although Mama Winnie has physically departed from us, the legacy of her selfless work and sacrifices is inscribed in the hearts and minds of millions of people in South Africa in particular and the world at large. As long as her legacy remains in the hearts and minds of people, she cannot and will not die.</t>
   </si>
   <si>
+    <t xml:space="preserve">Wadde nga Maama Winnie atuvuddeko mu mubiri, omusika gw’emirimu gye egy’obuteefiiriza n’okwewaayo bye biwandiikiddwa mu mitima n’ebirowoozo by’obukadde n’obukadde bw’abantu mu South Afrika naddala n’ensi yonna. Kasita omusika gwe gusigala mu mitima n’ebirowoozo by’abantu, tasobola era tajja kufa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">It is not a cliché to say that history will vindicate Mama Winnie, as a distinguished woman servant-leader who positively touched the lives of countless people by her practical work of compassion.</t>
   </si>
   <si>
+    <t xml:space="preserve">Si kya bulijjo okugamba nti ebyafaayo bijja kukakasa Maama Winnie, ng’omukyala ow’ekitiibwa omuweereza-omukulembeze eyakwata obulungi ku bulamu bw’abantu abatabalika olw’omulimu gwe ogw’omugaso ogw’okusaasira.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Because she made a positive difference in the lives of millions, they shall not only compose songs to keep her memory alive, but shall also carry high and relay the torch of social justice to future generations.</t>
   </si>
   <si>
+    <t xml:space="preserve">Olw’okuba yakola enjawulo ennungi mu bulamu bw’obukadde n’obukadde, tebajja kukoma ku kuyiiya nnyimba kukuuma kujjukira kwe nga kulamu, wabula era bajja kutwala waggulu n’okutuusa omumuli gw’obwenkanya mu bantu eri emirembe egijja.</t>
+  </si>
+  <si>
     <t xml:space="preserve">We have been struggling to provide safe water to learning institutions. Access in most schools is still a challenge. We welcome the initiative by Kampala Capital City Authority and its partners for providing water harvesting facilities to some of our schools, markets and other public places to ease access to safe water, free of diseases</t>
   </si>
   <si>
-    <t xml:space="preserve">However, experts say embracing rainwater harvesting could bridge the existing gap in schools, especially in areas where most underground sources of water ware contaminated.</t>
+    <t xml:space="preserve">Tubadde tulwana okuwa amatendekero g’okuyiga amazzi amayonjo. Okufuna mu masomero agasinga kukyali kusoomoozebwa. Tusanyukidde enteekateeka y’ekitongole kya Kampala Capital City Authority n’emikwano gyakyo olw’okuwa amasomero gaffe agamu, obutale n’ebifo ebirala eby’olukale ebifo eby’okukungula amazzi okusobola okwanguyiza okufuna amazzi amayonjo, agataliimu ndwadde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">However, experts say embracing rainwater harvesting could bridge the existing gap in schools, especially in areas where most underground sources of water are contaminated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wabula abakugu bagamba nti okwettanira enkola y’okukungula amazzi g’enkuba kiyinza okuziba ekituli ekiriwo mu masomero naddala mu bitundu omuli ensulo z’amazzi ezisinga wansi w’ettaka.</t>
   </si>
   <si>
     <t xml:space="preserve">“Without a vision, people perish. We need to prepare ourselves, get ready and create room for people who will be joining us. They will need education, clean water and good roads. We must continuously improve our facilities,” she says.</t>
   </si>
   <si>
+    <t xml:space="preserve">“Awatali kwolesebwa, abantu bazikirizibwa. Tulina okwetegekera, okwetegeka n’okutondawo ekifo eri abantu abagenda okutwegattako. Bajja kwetaaga okusomesebwa, amazzi amayonjo n’enguudo ennungi. Tulina okulongoosa ebifo byaffe buli kiseera,” bw’agamba.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kamulegeya also urges government to increase the number of teachers who are on government payroll to promote effective teaching and learning at his school.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamulegeya era asabye gavumenti eyongere omuwendo gw’abasomesa abali ku musaala gwa gavumenti okutumbula okusomesa n’okuyiga okulungi ku ssomero lye.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Uganda National Meteorological Authority has warned of a possible outbreak of malaria and other waterborne diseases endemic in the country such as cholera and bilharzia. Health officials have been urged to be on the lookout for another type of flood—that of patients.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ekitongole ekivunaanyizibwa ku mbeera y’obudde mu ggwanga ekya Uganda National Meteorological Authority kirabudde ku ndwadde z’omusujja n’endwadde endala ezisibuka mu mazzi eziyinza okubalukamu mu ggwanga nga kkolera ne bilharzia. Abakungu b’ebyobulamu basabiddwa okubeera ku bunkenke bw’amataba ag’ekika ekirala —ag’abalwadde.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Already, the Health ministry has embarked on a “free mosquito net campaign.” Locals have also been advised to clear any breeding grounds for mosquitoes such as floodplains along stream and river banks.</t>
   </si>
   <si>
+    <t xml:space="preserve">Edda, minisitule y’ebyobulamu yatandikiddewo “kaweefube w’okukozesa obutimba bw’ensiri obw’obwereere.” Abaayo era baweereddwa amagezi okugogola ebifo byonna ensiri mwe zizaalira ng’ebifo ebikulukutiramu amataba ku lubalama lw’emigga n’emigga.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The May rains have left a trail of destruction in the country. Violent winds, floods, mudslides, hailstorms, and thunderstorms have claimed lives and destroyed a number of public infrastructure. </t>
   </si>
   <si>
+    <t xml:space="preserve">Enkuba eyatonnye mu May erese omulambo gw’okusaanyaawo mu ggwanga. Empewo ez’amaanyi, amataba, okubumbulukuka kw’ebitosi, laddu, n’okubwatuka kw’enkuba bisse abantu n’okusaanyaawo ebintu by’olukale ebiwerako.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Incidents have been reported in Rukungiri District where flash floods, among others, claimed three lives, destroyed crops in the districts of Oyam and Bulambuli and displaced residents in Ntoroko, Kasese, and Butaleja.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ebibaddewo mu Disitulikiti y’e Rukungiri ng’amataba ag’amangu, n’amalala, gasse abantu basatu, ne gasaanyaawo ebirime mu disitulikiti y’e Oyam ne Bulambuli n’okusengulwa abatuuze mu bitundu by’e Ntoroko, Kasese, ne Butaleja.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Health Ministry has said the wave of flu and cough being reported across the country is caused by the influenza virus.</t>
   </si>
   <si>
+    <t xml:space="preserve">Minisitule y’ebyobulamu etegeezezza nti ebbidde lya ssennyiga n’okusesema ebitegeezebwa okwetoloola eggwanga liva ku kawuka ka ssennyiga.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Ministry said in the statement that the commonly affected groups are children under five years, school-going children, and the elderly.</t>
   </si>
   <si>
+    <t xml:space="preserve">Minisitule yategeezezza mu kiwandiiko nti ebibinja ebisinga okukosebwa be baana abali wansi w’emyaka etaano, abaana abagenda okusoma, n’abakadde.</t>
+  </si>
+  <si>
     <t xml:space="preserve">“About two percent of individuals who get viral influenza may get severe respiratory disease. However, there is no record of any consistent increase in hospitalization,” the statement reads further.</t>
   </si>
   <si>
+    <t xml:space="preserve">“Abantu nga bibiri ku buli kikumi abakwatibwa ssennyiga ow’akawuka bayinza okufuna obulwadde obw’amaanyi mu kussa. Wabula tewali likoda yonna eraga nti abantu abajjanjabibwa mu malwaliro beeyongera buli kiseera,” ekiwandiiko bwe kisoma.</t>
+  </si>
+  <si>
     <t xml:space="preserve">People who have the above symptoms should practice hand hygiene, avoid public gatherings or wear masks and avoid hugging and shaking hands to minimise spread, government directed on May twelfth</t>
   </si>
   <si>
+    <t xml:space="preserve">Abantu abalina obubonero obwo waggulu balina okwettanira obuyonjo mu ngalo, okwewala okukuŋŋaana mu lujjudde oba okwambala masiki n’okwewala okunywegera n’okukwatagana mu ngalo okukendeeza ku kusaasaana, gavumenti bwe yalagidde nga May kkumi n’ebiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">Local leaders in the districts of Mityana and Kassanda are in panic as rising water levels in Lake Wamala continue to wreak havoc in villages along the shores.</t>
   </si>
   <si>
+    <t xml:space="preserve">Abakulembeze b’ebitundu mu disitulikiti y’e Mityana ne Kassanda bali ku bunkenke ng’amazzi agalinnya mu nnyanja Wamala gakyagenda mu maaso n’okukola akatyabaga mu byalo ebiriraanye embalama.</t>
+  </si>
+  <si>
     <t xml:space="preserve">In the past one month, the lake’s water levels have risen, causing flooding in people’s homes and cutting off roads at the different landing sites.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mu mwezi gumu oguwedde, amazzi g’ennyanja eno galinnye, ekivuddeko amataba mu maka g’abantu n’okusalako enguudo mu bifo eby’enjawulo we batuukira.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lake Wamala is one of the freshwater bodies in Uganda covering over two hundred fifty square kilometres in the districts of Mityana, Gomba and Kassanda.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ennyanja Wamala y’emu ku bifo eby’amazzi amayonjo mu Uganda nga biweza square kilometers ezisoba mu bikumi bibiri mu ataano mu disitulikiti y’e Mityana, Gomba ne Kassanda.</t>
+  </si>
+  <si>
     <t xml:space="preserve">“People are stuck and all their businesses and properties have been destroyed. They do not have anywhere to go,” Geoffrey Kamya, the Kassanda District fisheries officer said in an interview.</t>
   </si>
   <si>
+    <t xml:space="preserve">“Abantu basibidde ne bizinensi zaabwe zonna n’ebintu byabwe bisaanyeewo. Tebalina we balaga,” Geoffrey Kamya akulira eby’obuvubi mu Disitulikiti y’e Kassanda bwe yategeezezza mu mboozi ey’akafubo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eric Kagaba, one of the local leaders said there is need to urgently evacuate the affected households.</t>
   </si>
   <si>
+    <t xml:space="preserve">Eric Kagaba omu ku bakulembeze mu kitundu kino agamba nti waliwo obwetaavu okusengula mu bwangu amaka agakoseddwa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Mityana District, some of the residents and local leaders have appealed to Prime Minister Robinah Nabbanja to personally intervene.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mu Disitulikiti y’e Mityana abamu ku batuuze n’abakulembeze b’ebitundu balajaanidde Ssaabaminisita Robinah Nabbanja ayingire mu nsonga zino kinnoomu.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julius Tumusiime, another resident of Maanyi said the floods have completely cut off some areas and residents can no longer access health facilities.</t>
   </si>
   <si>
@@ -726,6 +1116,9 @@
   </si>
   <si>
     <t xml:space="preserve">What is the main duty of the police </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omulimu gwa poliisi omukulu gwe guliwa?</t>
   </si>
   <si>
     <t xml:space="preserve">State any 4 ways the police enforces law and order</t>
@@ -3137,6 +3530,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3158,11 +3552,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3241,5185 +3637,5579 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1034"/>
+  <dimension ref="A1:B1034"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A247" activeCellId="0" sqref="A247"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B130" activeCellId="0" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>128</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>132</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>134</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>138</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>158</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>174</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>230</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>236</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>258</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="460.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>155</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>290</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>165</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>296</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>168</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>177</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>178</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>180</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>182</v>
+        <v>312</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>186</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>196</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>199</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>200</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>201</v>
+        <v>331</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>204</v>
+        <v>334</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>208</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>213</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>214</v>
+        <v>344</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>216</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>217</v>
+        <v>347</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>219</v>
+        <v>349</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>220</v>
+        <v>350</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>221</v>
+        <v>351</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>223</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>224</v>
+        <v>354</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>225</v>
+        <v>355</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>227</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>228</v>
+        <v>358</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>229</v>
+        <v>359</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>230</v>
+        <v>360</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>231</v>
+        <v>361</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>233</v>
+        <v>363</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>234</v>
+        <v>364</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>236</v>
+        <v>367</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>238</v>
+        <v>369</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>240</v>
+        <v>371</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>241</v>
+        <v>372</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>242</v>
+        <v>373</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>243</v>
+        <v>374</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>244</v>
+        <v>375</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>245</v>
+        <v>376</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>246</v>
+        <v>377</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>247</v>
+        <v>378</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>248</v>
+        <v>379</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>249</v>
+        <v>380</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>250</v>
+        <v>381</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>251</v>
+        <v>382</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>252</v>
+        <v>383</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>253</v>
+        <v>384</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>254</v>
+        <v>385</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
-        <v>258</v>
+        <v>389</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>259</v>
+        <v>390</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
-        <v>260</v>
+        <v>391</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
-        <v>263</v>
+        <v>394</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
-        <v>264</v>
+        <v>395</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>265</v>
+        <v>396</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>266</v>
+        <v>397</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
-        <v>267</v>
+        <v>398</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
-        <v>268</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
-        <v>269</v>
+        <v>400</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
-        <v>270</v>
+        <v>401</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
-        <v>272</v>
+        <v>403</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
-        <v>274</v>
+        <v>405</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
-        <v>275</v>
+        <v>406</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
-        <v>276</v>
+        <v>407</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
-        <v>279</v>
+        <v>410</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
-        <v>280</v>
+        <v>411</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
-        <v>281</v>
+        <v>412</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
-        <v>282</v>
+        <v>413</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
-        <v>283</v>
+        <v>414</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
-        <v>284</v>
+        <v>415</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
-        <v>285</v>
+        <v>416</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
-        <v>287</v>
+        <v>418</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>288</v>
+        <v>419</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>289</v>
+        <v>420</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>290</v>
+        <v>421</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>291</v>
+        <v>422</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>292</v>
+        <v>423</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
-        <v>293</v>
+        <v>424</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>294</v>
+        <v>425</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
-        <v>295</v>
+        <v>426</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
-        <v>296</v>
+        <v>427</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>297</v>
+        <v>428</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
-        <v>298</v>
+        <v>429</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
-        <v>299</v>
+        <v>430</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
-        <v>300</v>
+        <v>431</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
-        <v>301</v>
+        <v>432</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
-        <v>302</v>
+        <v>433</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
-        <v>303</v>
+        <v>434</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
-        <v>304</v>
+        <v>435</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
-        <v>305</v>
+        <v>436</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
-        <v>306</v>
+        <v>437</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>307</v>
+        <v>438</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
-        <v>308</v>
+        <v>439</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
-        <v>309</v>
+        <v>440</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
-        <v>310</v>
+        <v>441</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
-        <v>311</v>
+        <v>442</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
-        <v>312</v>
+        <v>443</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>313</v>
+        <v>444</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
-        <v>314</v>
+        <v>445</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>315</v>
+        <v>446</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>317</v>
+        <v>448</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
-        <v>318</v>
+        <v>449</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
-        <v>319</v>
+        <v>450</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>320</v>
+        <v>451</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>323</v>
+        <v>454</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
-        <v>324</v>
+        <v>455</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
-        <v>325</v>
+        <v>456</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="s">
-        <v>326</v>
+        <v>457</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="2" t="s">
-        <v>327</v>
+        <v>458</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
-        <v>328</v>
+        <v>459</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
-        <v>329</v>
+        <v>460</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
-        <v>331</v>
+        <v>462</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
-        <v>333</v>
+        <v>464</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
-        <v>334</v>
+        <v>465</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
-        <v>335</v>
+        <v>466</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="s">
-        <v>336</v>
+        <v>467</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
-        <v>337</v>
+        <v>468</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
-        <v>338</v>
+        <v>469</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
-        <v>339</v>
+        <v>470</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
-        <v>342</v>
+        <v>473</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
-        <v>343</v>
+        <v>474</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
-        <v>344</v>
+        <v>475</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
-        <v>345</v>
+        <v>476</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2" t="s">
-        <v>346</v>
+        <v>477</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
-        <v>348</v>
+        <v>479</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
-        <v>349</v>
+        <v>480</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
-        <v>350</v>
+        <v>481</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="s">
-        <v>351</v>
+        <v>482</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
-        <v>352</v>
+        <v>483</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="s">
-        <v>353</v>
+        <v>484</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
-        <v>355</v>
+        <v>486</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
-        <v>356</v>
+        <v>487</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
-        <v>357</v>
+        <v>488</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
-        <v>358</v>
+        <v>489</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
-        <v>359</v>
+        <v>490</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
-        <v>360</v>
+        <v>491</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
-        <v>361</v>
+        <v>492</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
-        <v>362</v>
+        <v>493</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
-        <v>363</v>
+        <v>494</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
-        <v>364</v>
+        <v>495</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="s">
-        <v>365</v>
+        <v>496</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
-        <v>366</v>
+        <v>497</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
-        <v>367</v>
+        <v>498</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
-        <v>368</v>
+        <v>499</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>369</v>
+        <v>500</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
-        <v>370</v>
+        <v>501</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
-        <v>371</v>
+        <v>502</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
-        <v>372</v>
+        <v>503</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
-        <v>375</v>
+        <v>506</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
-        <v>378</v>
+        <v>509</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
-        <v>380</v>
+        <v>511</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
-        <v>381</v>
+        <v>512</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
-        <v>382</v>
+        <v>513</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
-        <v>383</v>
+        <v>514</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
-        <v>384</v>
+        <v>515</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
-        <v>385</v>
+        <v>516</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>386</v>
+        <v>517</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
-        <v>387</v>
+        <v>518</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="s">
-        <v>388</v>
+        <v>519</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
-        <v>389</v>
+        <v>520</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
-        <v>390</v>
+        <v>521</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
-        <v>391</v>
+        <v>522</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
-        <v>392</v>
+        <v>523</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
-        <v>394</v>
+        <v>525</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>395</v>
+        <v>526</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
-        <v>396</v>
+        <v>527</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>397</v>
+        <v>528</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
-        <v>398</v>
+        <v>529</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
-        <v>399</v>
+        <v>530</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
-        <v>400</v>
+        <v>531</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>401</v>
+        <v>532</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>402</v>
+        <v>533</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>403</v>
+        <v>534</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
-        <v>405</v>
+        <v>536</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
-        <v>407</v>
+        <v>538</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
-        <v>408</v>
+        <v>539</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>409</v>
+        <v>540</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>410</v>
+        <v>541</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
-        <v>411</v>
+        <v>542</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
-        <v>412</v>
+        <v>543</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>413</v>
+        <v>544</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
-        <v>414</v>
+        <v>545</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>415</v>
+        <v>546</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
-        <v>416</v>
+        <v>547</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>417</v>
+        <v>548</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
-        <v>418</v>
+        <v>549</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>419</v>
+        <v>550</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
-        <v>420</v>
+        <v>551</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
-        <v>421</v>
+        <v>552</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
-        <v>423</v>
+        <v>554</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>424</v>
+        <v>555</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>425</v>
+        <v>556</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>426</v>
+        <v>557</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>427</v>
+        <v>558</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
-        <v>428</v>
+        <v>559</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>429</v>
+        <v>560</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>430</v>
+        <v>561</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>431</v>
+        <v>562</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>432</v>
+        <v>563</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>433</v>
+        <v>564</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>434</v>
+        <v>565</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>435</v>
+        <v>566</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>436</v>
+        <v>567</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>437</v>
+        <v>568</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>438</v>
+        <v>569</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>439</v>
+        <v>570</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>440</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>441</v>
+        <v>572</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>442</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>443</v>
+        <v>574</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>444</v>
+        <v>575</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>445</v>
+        <v>576</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>446</v>
+        <v>577</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>447</v>
+        <v>578</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
-        <v>448</v>
+        <v>579</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
-        <v>449</v>
+        <v>580</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>450</v>
+        <v>581</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>451</v>
+        <v>582</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>452</v>
+        <v>583</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>453</v>
+        <v>584</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>454</v>
+        <v>585</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
-        <v>455</v>
+        <v>586</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>456</v>
+        <v>587</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>457</v>
+        <v>588</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>458</v>
+        <v>589</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>459</v>
+        <v>590</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>460</v>
+        <v>591</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>461</v>
+        <v>592</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>462</v>
+        <v>593</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>463</v>
+        <v>594</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>464</v>
+        <v>595</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>465</v>
+        <v>596</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>466</v>
+        <v>597</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>467</v>
+        <v>598</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>468</v>
+        <v>599</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="s">
-        <v>469</v>
+        <v>600</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
-        <v>470</v>
+        <v>601</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>471</v>
+        <v>602</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="s">
-        <v>472</v>
+        <v>603</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
-        <v>473</v>
+        <v>604</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>474</v>
+        <v>605</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>475</v>
+        <v>606</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
-        <v>476</v>
+        <v>607</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
-        <v>477</v>
+        <v>608</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
-        <v>478</v>
+        <v>609</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
-        <v>479</v>
+        <v>610</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
-        <v>480</v>
+        <v>611</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>481</v>
+        <v>612</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>482</v>
+        <v>613</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>483</v>
+        <v>614</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>484</v>
+        <v>615</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>485</v>
+        <v>616</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>486</v>
+        <v>617</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>487</v>
+        <v>618</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>488</v>
+        <v>619</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>489</v>
+        <v>620</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>490</v>
+        <v>621</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>491</v>
+        <v>622</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>492</v>
+        <v>623</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>493</v>
+        <v>624</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>494</v>
+        <v>625</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>495</v>
+        <v>626</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>496</v>
+        <v>627</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>497</v>
+        <v>628</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>498</v>
+        <v>629</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>499</v>
+        <v>630</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="s">
-        <v>500</v>
+        <v>631</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
-        <v>501</v>
+        <v>632</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="s">
-        <v>502</v>
+        <v>633</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
-        <v>503</v>
+        <v>634</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
-        <v>504</v>
+        <v>635</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
-        <v>505</v>
+        <v>636</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
-        <v>506</v>
+        <v>637</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
-        <v>507</v>
+        <v>638</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="s">
-        <v>508</v>
+        <v>639</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="s">
-        <v>509</v>
+        <v>640</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="s">
-        <v>510</v>
+        <v>641</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="2" t="s">
-        <v>511</v>
+        <v>642</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2" t="s">
-        <v>512</v>
+        <v>643</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2" t="s">
-        <v>513</v>
+        <v>644</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2" t="s">
-        <v>514</v>
+        <v>645</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="s">
-        <v>515</v>
+        <v>646</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="s">
-        <v>516</v>
+        <v>647</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
-        <v>517</v>
+        <v>648</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="s">
-        <v>518</v>
+        <v>649</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="s">
-        <v>519</v>
+        <v>650</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2" t="s">
-        <v>520</v>
+        <v>651</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="s">
-        <v>521</v>
+        <v>652</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="s">
-        <v>522</v>
+        <v>653</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="s">
-        <v>523</v>
+        <v>654</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="s">
-        <v>524</v>
+        <v>655</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
-        <v>525</v>
+        <v>656</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="s">
-        <v>526</v>
+        <v>657</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="s">
-        <v>527</v>
+        <v>658</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2" t="s">
-        <v>528</v>
+        <v>659</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="s">
-        <v>529</v>
+        <v>660</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
-        <v>530</v>
+        <v>661</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="s">
-        <v>531</v>
+        <v>662</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
-        <v>532</v>
+        <v>663</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
-        <v>533</v>
+        <v>664</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
-        <v>534</v>
+        <v>665</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
-        <v>535</v>
+        <v>666</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2" t="s">
-        <v>536</v>
+        <v>667</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="s">
-        <v>537</v>
+        <v>668</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
-        <v>538</v>
+        <v>669</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
-        <v>539</v>
+        <v>670</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2" t="s">
-        <v>540</v>
+        <v>671</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
-        <v>541</v>
+        <v>672</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="s">
-        <v>542</v>
+        <v>673</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="s">
-        <v>543</v>
+        <v>674</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
-        <v>544</v>
+        <v>675</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
-        <v>545</v>
+        <v>676</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
-        <v>546</v>
+        <v>677</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
-        <v>547</v>
+        <v>678</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="s">
-        <v>548</v>
+        <v>679</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="s">
-        <v>549</v>
+        <v>680</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="s">
-        <v>550</v>
+        <v>681</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="s">
-        <v>551</v>
+        <v>682</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="s">
-        <v>552</v>
+        <v>683</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2" t="s">
-        <v>553</v>
+        <v>684</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="s">
-        <v>554</v>
+        <v>685</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2" t="s">
-        <v>555</v>
+        <v>686</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
-        <v>556</v>
+        <v>687</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="s">
-        <v>557</v>
+        <v>688</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
-        <v>558</v>
+        <v>689</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
-        <v>559</v>
+        <v>690</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
-        <v>560</v>
+        <v>691</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="s">
-        <v>561</v>
+        <v>692</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="s">
-        <v>562</v>
+        <v>693</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="s">
-        <v>563</v>
+        <v>694</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="s">
-        <v>564</v>
+        <v>695</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="s">
-        <v>565</v>
+        <v>696</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="s">
-        <v>566</v>
+        <v>697</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="s">
-        <v>567</v>
+        <v>698</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="s">
-        <v>568</v>
+        <v>699</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="s">
-        <v>569</v>
+        <v>700</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2" t="s">
-        <v>570</v>
+        <v>701</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
-        <v>571</v>
+        <v>702</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
-        <v>572</v>
+        <v>703</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
-        <v>573</v>
+        <v>704</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="s">
-        <v>574</v>
+        <v>705</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
-        <v>575</v>
+        <v>706</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
-        <v>577</v>
+        <v>708</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
-        <v>578</v>
+        <v>709</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
-        <v>579</v>
+        <v>710</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="s">
-        <v>580</v>
+        <v>711</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
-        <v>581</v>
+        <v>712</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
-        <v>582</v>
+        <v>713</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
-        <v>583</v>
+        <v>714</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
-        <v>584</v>
+        <v>715</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
-        <v>585</v>
+        <v>716</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="s">
-        <v>586</v>
+        <v>717</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
-        <v>587</v>
+        <v>718</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
-        <v>588</v>
+        <v>719</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
-        <v>589</v>
+        <v>720</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
-        <v>590</v>
+        <v>721</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
-        <v>591</v>
+        <v>722</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
-        <v>592</v>
+        <v>723</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="s">
-        <v>593</v>
+        <v>724</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
-        <v>594</v>
+        <v>725</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
-        <v>595</v>
+        <v>726</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="s">
-        <v>596</v>
+        <v>727</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
-        <v>597</v>
+        <v>728</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="s">
-        <v>598</v>
+        <v>729</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="s">
-        <v>599</v>
+        <v>730</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
-        <v>600</v>
+        <v>731</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
-        <v>601</v>
+        <v>732</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
-        <v>602</v>
+        <v>733</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
-        <v>603</v>
+        <v>734</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
-        <v>604</v>
+        <v>735</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="s">
-        <v>605</v>
+        <v>736</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
-        <v>606</v>
+        <v>737</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="s">
-        <v>607</v>
+        <v>738</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="s">
-        <v>608</v>
+        <v>739</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="s">
-        <v>609</v>
+        <v>740</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2" t="s">
-        <v>610</v>
+        <v>741</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="s">
-        <v>611</v>
+        <v>742</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="2" t="s">
-        <v>612</v>
+        <v>743</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="s">
-        <v>613</v>
+        <v>744</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="s">
-        <v>614</v>
+        <v>745</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2" t="s">
-        <v>615</v>
+        <v>746</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2" t="s">
-        <v>616</v>
+        <v>747</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="s">
-        <v>617</v>
+        <v>748</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2" t="s">
-        <v>618</v>
+        <v>749</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="s">
-        <v>619</v>
+        <v>750</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="s">
-        <v>620</v>
+        <v>751</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="s">
-        <v>621</v>
+        <v>752</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="s">
-        <v>622</v>
+        <v>753</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="s">
-        <v>623</v>
+        <v>754</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2" t="s">
-        <v>624</v>
+        <v>755</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="s">
-        <v>625</v>
+        <v>756</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2" t="s">
-        <v>626</v>
+        <v>757</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="s">
-        <v>627</v>
+        <v>758</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2" t="s">
-        <v>628</v>
+        <v>759</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2" t="s">
-        <v>629</v>
+        <v>760</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2" t="s">
-        <v>630</v>
+        <v>761</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2" t="s">
-        <v>631</v>
+        <v>762</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2" t="s">
-        <v>632</v>
+        <v>763</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2" t="s">
-        <v>633</v>
+        <v>764</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2" t="s">
-        <v>634</v>
+        <v>765</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2" t="s">
-        <v>635</v>
+        <v>766</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2" t="s">
-        <v>636</v>
+        <v>767</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2" t="s">
-        <v>637</v>
+        <v>768</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2" t="s">
-        <v>638</v>
+        <v>769</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2" t="s">
-        <v>639</v>
+        <v>770</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2" t="s">
-        <v>640</v>
+        <v>771</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2" t="s">
-        <v>641</v>
+        <v>772</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2" t="s">
-        <v>642</v>
+        <v>773</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2" t="s">
-        <v>643</v>
+        <v>774</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2" t="s">
-        <v>644</v>
+        <v>775</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2" t="s">
-        <v>645</v>
+        <v>776</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2" t="s">
-        <v>646</v>
+        <v>777</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2" t="s">
-        <v>647</v>
+        <v>778</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2" t="s">
-        <v>648</v>
+        <v>779</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2" t="s">
-        <v>649</v>
+        <v>780</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2" t="s">
-        <v>650</v>
+        <v>781</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2" t="s">
-        <v>651</v>
+        <v>782</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2" t="s">
-        <v>652</v>
+        <v>783</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2" t="s">
-        <v>653</v>
+        <v>784</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="s">
-        <v>654</v>
+        <v>785</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="s">
-        <v>655</v>
+        <v>786</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2" t="s">
-        <v>656</v>
+        <v>787</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2" t="s">
-        <v>657</v>
+        <v>788</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2" t="s">
-        <v>659</v>
+        <v>790</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2" t="s">
-        <v>660</v>
+        <v>791</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2" t="s">
-        <v>661</v>
+        <v>792</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2" t="s">
-        <v>662</v>
+        <v>793</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2" t="s">
-        <v>663</v>
+        <v>794</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2" t="s">
-        <v>664</v>
+        <v>795</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2" t="s">
-        <v>665</v>
+        <v>796</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="s">
-        <v>666</v>
+        <v>797</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="s">
-        <v>667</v>
+        <v>798</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2" t="s">
-        <v>668</v>
+        <v>799</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2" t="s">
-        <v>669</v>
+        <v>800</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2" t="s">
-        <v>670</v>
+        <v>801</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2" t="s">
-        <v>671</v>
+        <v>802</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2" t="s">
-        <v>672</v>
+        <v>803</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2" t="s">
-        <v>673</v>
+        <v>804</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2" t="s">
-        <v>674</v>
+        <v>805</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="2" t="s">
-        <v>675</v>
+        <v>806</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="2" t="s">
-        <v>676</v>
+        <v>807</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2" t="s">
-        <v>677</v>
+        <v>808</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="2" t="s">
-        <v>678</v>
+        <v>809</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2" t="s">
-        <v>679</v>
+        <v>810</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2" t="s">
-        <v>680</v>
+        <v>811</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2" t="s">
-        <v>681</v>
+        <v>812</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2" t="s">
-        <v>682</v>
+        <v>813</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="2" t="s">
-        <v>683</v>
+        <v>814</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2" t="s">
-        <v>684</v>
+        <v>815</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2" t="s">
-        <v>685</v>
+        <v>816</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2" t="s">
-        <v>686</v>
+        <v>817</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2" t="s">
-        <v>687</v>
+        <v>818</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2" t="s">
-        <v>688</v>
+        <v>819</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="2" t="s">
-        <v>689</v>
+        <v>820</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2" t="s">
-        <v>690</v>
+        <v>821</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2" t="s">
-        <v>691</v>
+        <v>822</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="2" t="s">
-        <v>692</v>
+        <v>823</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2" t="s">
-        <v>693</v>
+        <v>824</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2" t="s">
-        <v>694</v>
+        <v>825</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="2" t="s">
-        <v>695</v>
+        <v>826</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="2" t="s">
-        <v>696</v>
+        <v>827</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="2" t="s">
-        <v>697</v>
+        <v>828</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="2" t="s">
-        <v>698</v>
+        <v>829</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="2" t="s">
-        <v>699</v>
+        <v>830</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="2" t="s">
-        <v>700</v>
+        <v>831</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="2" t="s">
-        <v>701</v>
+        <v>832</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="2" t="s">
-        <v>702</v>
+        <v>833</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="2" t="s">
-        <v>703</v>
+        <v>834</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="2" t="s">
-        <v>704</v>
+        <v>835</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="2" t="s">
-        <v>705</v>
+        <v>836</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="2" t="s">
-        <v>706</v>
+        <v>837</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="2" t="s">
-        <v>707</v>
+        <v>838</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2" t="s">
-        <v>708</v>
+        <v>839</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="2" t="s">
-        <v>709</v>
+        <v>840</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="2" t="s">
-        <v>710</v>
+        <v>841</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="2" t="s">
-        <v>711</v>
+        <v>842</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="2" t="s">
-        <v>712</v>
+        <v>843</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="2" t="s">
-        <v>713</v>
+        <v>844</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="2" t="s">
-        <v>714</v>
+        <v>845</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>715</v>
+        <v>846</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
-        <v>716</v>
+        <v>847</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2" t="s">
-        <v>717</v>
+        <v>848</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2" t="s">
-        <v>718</v>
+        <v>849</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2" t="s">
-        <v>719</v>
+        <v>850</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="2" t="s">
-        <v>720</v>
+        <v>851</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="2" t="s">
-        <v>721</v>
+        <v>852</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2" t="s">
-        <v>722</v>
+        <v>853</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2" t="s">
-        <v>723</v>
+        <v>854</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2" t="s">
-        <v>724</v>
+        <v>855</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2" t="s">
-        <v>726</v>
+        <v>857</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="2" t="s">
-        <v>727</v>
+        <v>858</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2" t="s">
-        <v>728</v>
+        <v>859</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2" t="s">
-        <v>729</v>
+        <v>860</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="2" t="s">
-        <v>730</v>
+        <v>861</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="2" t="s">
-        <v>731</v>
+        <v>862</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2" t="s">
-        <v>732</v>
+        <v>863</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2" t="s">
-        <v>733</v>
+        <v>864</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2" t="s">
-        <v>734</v>
+        <v>865</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2" t="s">
-        <v>735</v>
+        <v>866</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2" t="s">
-        <v>736</v>
+        <v>867</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2" t="s">
-        <v>737</v>
+        <v>868</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2" t="s">
-        <v>738</v>
+        <v>869</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2" t="s">
-        <v>739</v>
+        <v>870</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2" t="s">
-        <v>740</v>
+        <v>871</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="2" t="s">
-        <v>741</v>
+        <v>872</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2" t="s">
-        <v>742</v>
+        <v>873</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2" t="s">
-        <v>743</v>
+        <v>874</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2" t="s">
-        <v>744</v>
+        <v>875</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2" t="s">
-        <v>745</v>
+        <v>876</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="2" t="s">
-        <v>746</v>
+        <v>877</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2" t="s">
-        <v>747</v>
+        <v>878</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="2" t="s">
-        <v>748</v>
+        <v>879</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2" t="s">
-        <v>749</v>
+        <v>880</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2" t="s">
-        <v>750</v>
+        <v>881</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2" t="s">
-        <v>751</v>
+        <v>882</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2" t="s">
-        <v>752</v>
+        <v>883</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2" t="s">
-        <v>753</v>
+        <v>884</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="2" t="s">
-        <v>754</v>
+        <v>885</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="2" t="s">
-        <v>755</v>
+        <v>886</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="2" t="s">
-        <v>756</v>
+        <v>887</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="2" t="s">
-        <v>757</v>
+        <v>888</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="2" t="s">
-        <v>758</v>
+        <v>889</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2" t="s">
-        <v>759</v>
+        <v>890</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2" t="s">
-        <v>760</v>
+        <v>891</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2" t="s">
-        <v>761</v>
+        <v>892</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="2" t="s">
-        <v>762</v>
+        <v>893</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="2" t="s">
-        <v>763</v>
+        <v>894</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2" t="s">
-        <v>764</v>
+        <v>895</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="2" t="s">
-        <v>765</v>
+        <v>896</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="2" t="s">
-        <v>766</v>
+        <v>897</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2" t="s">
-        <v>767</v>
+        <v>898</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2" t="s">
-        <v>768</v>
+        <v>899</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2" t="s">
-        <v>769</v>
+        <v>900</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2" t="s">
-        <v>770</v>
+        <v>901</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="2" t="s">
-        <v>771</v>
+        <v>902</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2" t="s">
-        <v>772</v>
+        <v>903</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2" t="s">
-        <v>773</v>
+        <v>904</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2" t="s">
-        <v>774</v>
+        <v>905</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="2" t="s">
-        <v>775</v>
+        <v>906</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2" t="s">
-        <v>776</v>
+        <v>907</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2" t="s">
-        <v>777</v>
+        <v>908</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="2" t="s">
-        <v>778</v>
+        <v>909</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2" t="s">
-        <v>779</v>
+        <v>910</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2" t="s">
-        <v>780</v>
+        <v>911</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="2" t="s">
-        <v>781</v>
+        <v>912</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2" t="s">
-        <v>782</v>
+        <v>913</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2" t="s">
-        <v>783</v>
+        <v>914</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="2" t="s">
-        <v>784</v>
+        <v>915</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="2" t="s">
-        <v>785</v>
+        <v>916</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="2" t="s">
-        <v>786</v>
+        <v>917</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="2" t="s">
-        <v>787</v>
+        <v>918</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="2" t="s">
-        <v>788</v>
+        <v>919</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="2" t="s">
-        <v>789</v>
+        <v>920</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="2" t="s">
-        <v>790</v>
+        <v>921</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2" t="s">
-        <v>791</v>
+        <v>922</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="2" t="s">
-        <v>792</v>
+        <v>923</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="2" t="s">
-        <v>793</v>
+        <v>924</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="2" t="s">
-        <v>794</v>
+        <v>925</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="2" t="s">
-        <v>795</v>
+        <v>926</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="2" t="s">
-        <v>796</v>
+        <v>927</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="2" t="s">
-        <v>797</v>
+        <v>928</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="2" t="s">
-        <v>798</v>
+        <v>929</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="2" t="s">
-        <v>799</v>
+        <v>930</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="2" t="s">
-        <v>800</v>
+        <v>931</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="2" t="s">
-        <v>801</v>
+        <v>932</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="2" t="s">
-        <v>802</v>
+        <v>933</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="2" t="s">
-        <v>803</v>
+        <v>934</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="2" t="s">
-        <v>804</v>
+        <v>935</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="2" t="s">
-        <v>805</v>
+        <v>936</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="2" t="s">
-        <v>806</v>
+        <v>937</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="2" t="s">
-        <v>807</v>
+        <v>938</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="2" t="s">
-        <v>808</v>
+        <v>939</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="2" t="s">
-        <v>809</v>
+        <v>940</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="2" t="s">
-        <v>810</v>
+        <v>941</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="2" t="s">
-        <v>811</v>
+        <v>942</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="2" t="s">
-        <v>812</v>
+        <v>943</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="2" t="s">
-        <v>813</v>
+        <v>944</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="2" t="s">
-        <v>814</v>
+        <v>945</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="2" t="s">
-        <v>815</v>
+        <v>946</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="2" t="s">
-        <v>816</v>
+        <v>947</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="2" t="s">
-        <v>817</v>
+        <v>948</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="2" t="s">
-        <v>818</v>
+        <v>949</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="2" t="s">
-        <v>819</v>
+        <v>950</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="2" t="s">
-        <v>820</v>
+        <v>951</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="2" t="s">
-        <v>821</v>
+        <v>952</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="2" t="s">
-        <v>822</v>
+        <v>953</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="2" t="s">
-        <v>823</v>
+        <v>954</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="2" t="s">
-        <v>824</v>
+        <v>955</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="2" t="s">
-        <v>825</v>
+        <v>956</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="2" t="s">
-        <v>826</v>
+        <v>957</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="2" t="s">
-        <v>827</v>
+        <v>958</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="2" t="s">
-        <v>828</v>
+        <v>959</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="2" t="s">
-        <v>829</v>
+        <v>960</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="2" t="s">
-        <v>830</v>
+        <v>961</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="2" t="s">
-        <v>831</v>
+        <v>962</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="2" t="s">
-        <v>832</v>
+        <v>963</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="2" t="s">
-        <v>833</v>
+        <v>964</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="2" t="s">
-        <v>834</v>
+        <v>965</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="2" t="s">
-        <v>835</v>
+        <v>966</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="2" t="s">
-        <v>836</v>
+        <v>967</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="2" t="s">
-        <v>837</v>
+        <v>968</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="2" t="s">
-        <v>838</v>
+        <v>969</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="2" t="s">
-        <v>839</v>
+        <v>970</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="2" t="s">
-        <v>840</v>
+        <v>971</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="2" t="s">
-        <v>841</v>
+        <v>972</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="2" t="s">
-        <v>842</v>
+        <v>973</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="2" t="s">
-        <v>843</v>
+        <v>974</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="2" t="s">
-        <v>844</v>
+        <v>975</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="2" t="s">
-        <v>845</v>
+        <v>976</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="2" t="s">
-        <v>846</v>
+        <v>977</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="2" t="s">
-        <v>847</v>
+        <v>978</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="2" t="s">
-        <v>848</v>
+        <v>979</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="2" t="s">
-        <v>849</v>
+        <v>980</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="2" t="s">
-        <v>850</v>
+        <v>981</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="2" t="s">
-        <v>851</v>
+        <v>982</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="2" t="s">
-        <v>852</v>
+        <v>983</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="2" t="s">
-        <v>853</v>
+        <v>984</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="2" t="s">
-        <v>854</v>
+        <v>985</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="2" t="s">
-        <v>855</v>
+        <v>986</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="2" t="s">
-        <v>856</v>
+        <v>987</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="2" t="s">
-        <v>857</v>
+        <v>988</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="2" t="s">
-        <v>858</v>
+        <v>989</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="2" t="s">
-        <v>859</v>
+        <v>990</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="2" t="s">
-        <v>860</v>
+        <v>991</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="2" t="s">
-        <v>861</v>
+        <v>992</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="2" t="s">
-        <v>862</v>
+        <v>993</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="2" t="s">
-        <v>863</v>
+        <v>994</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="2" t="s">
-        <v>864</v>
+        <v>995</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="2" t="s">
-        <v>865</v>
+        <v>996</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="2" t="s">
-        <v>866</v>
+        <v>997</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2" t="s">
-        <v>867</v>
+        <v>998</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="2" t="s">
-        <v>868</v>
+        <v>999</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="2" t="s">
-        <v>869</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="2" t="s">
-        <v>870</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="2" t="s">
-        <v>871</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2" t="s">
-        <v>872</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="2" t="s">
-        <v>873</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="2" t="s">
-        <v>874</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="2" t="s">
-        <v>875</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="2" t="s">
-        <v>876</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="2" t="s">
-        <v>877</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="2" t="s">
-        <v>878</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="2" t="s">
-        <v>879</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="2" t="s">
-        <v>880</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="2" t="s">
-        <v>881</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="2" t="s">
-        <v>882</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="2" t="s">
-        <v>883</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="2" t="s">
-        <v>884</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="2" t="s">
-        <v>885</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="2" t="s">
-        <v>886</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="2" t="s">
-        <v>887</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="2" t="s">
-        <v>888</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="2" t="s">
-        <v>889</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="2" t="s">
-        <v>890</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="2" t="s">
-        <v>891</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="2" t="s">
-        <v>892</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="2" t="s">
-        <v>893</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="2" t="s">
-        <v>894</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="2" t="s">
-        <v>895</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="2" t="s">
-        <v>896</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="2" t="s">
-        <v>897</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="2" t="s">
-        <v>898</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="2" t="s">
-        <v>899</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="2" t="s">
-        <v>900</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="2" t="s">
-        <v>901</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="2" t="s">
-        <v>902</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="2" t="s">
-        <v>903</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="2" t="s">
-        <v>904</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="2" t="s">
-        <v>905</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="2" t="s">
-        <v>906</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="2" t="s">
-        <v>907</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="2" t="s">
-        <v>908</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="2" t="s">
-        <v>909</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="2" t="s">
-        <v>910</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="2" t="s">
-        <v>911</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="2" t="s">
-        <v>912</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="2" t="s">
-        <v>913</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="2" t="s">
-        <v>914</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="2" t="s">
-        <v>915</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="2" t="s">
-        <v>916</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="2" t="s">
-        <v>917</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="2" t="s">
-        <v>918</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="2" t="s">
-        <v>919</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="2" t="s">
-        <v>920</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="2" t="s">
-        <v>921</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="2" t="s">
-        <v>922</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="2" t="s">
-        <v>923</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="2" t="s">
-        <v>924</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="2" t="s">
-        <v>925</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="2" t="s">
-        <v>926</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="2" t="s">
-        <v>927</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="2" t="s">
-        <v>928</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="2" t="s">
-        <v>929</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="2" t="s">
-        <v>930</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="2" t="s">
-        <v>931</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="2" t="s">
-        <v>932</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="2" t="s">
-        <v>933</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="2" t="s">
-        <v>934</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="2" t="s">
-        <v>935</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="2" t="s">
-        <v>936</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="2" t="s">
-        <v>937</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="2" t="s">
-        <v>939</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="2" t="s">
-        <v>940</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="2" t="s">
-        <v>941</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="2" t="s">
-        <v>942</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="2" t="s">
-        <v>943</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="2" t="s">
-        <v>944</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="2" t="s">
-        <v>945</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="2" t="s">
-        <v>946</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="2" t="s">
-        <v>947</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="2" t="s">
-        <v>948</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="2" t="s">
-        <v>949</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="2" t="s">
-        <v>950</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="2" t="s">
-        <v>951</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="2" t="s">
-        <v>952</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="2" t="s">
-        <v>953</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="2" t="s">
-        <v>954</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="2" t="s">
-        <v>955</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="2" t="s">
-        <v>956</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="2" t="s">
-        <v>957</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="2" t="s">
-        <v>958</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="2" t="s">
-        <v>959</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="2" t="s">
-        <v>960</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="2" t="s">
-        <v>961</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="2" t="s">
-        <v>962</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="2" t="s">
-        <v>963</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="2" t="s">
-        <v>964</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="2" t="s">
-        <v>965</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="2" t="s">
-        <v>966</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="2" t="s">
-        <v>967</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="2" t="s">
-        <v>968</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="2" t="s">
-        <v>969</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="2" t="s">
-        <v>970</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="2" t="s">
-        <v>971</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="2" t="s">
-        <v>972</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="2" t="s">
-        <v>973</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="2" t="s">
-        <v>974</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="2" t="s">
-        <v>975</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="2" t="s">
-        <v>976</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="2" t="s">
-        <v>977</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="2" t="s">
-        <v>978</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="2" t="s">
-        <v>979</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="2" t="s">
-        <v>980</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="2" t="s">
-        <v>981</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="2" t="s">
-        <v>982</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="2" t="s">
-        <v>983</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="2" t="s">
-        <v>984</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="2" t="s">
-        <v>985</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="2" t="s">
-        <v>986</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="2" t="s">
-        <v>987</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="2" t="s">
-        <v>988</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="2" t="s">
-        <v>989</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="2" t="s">
-        <v>990</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="2" t="s">
-        <v>991</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="2" t="s">
-        <v>992</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="2" t="s">
-        <v>993</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="2" t="s">
-        <v>994</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="2" t="s">
-        <v>995</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="2" t="s">
-        <v>996</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="2" t="s">
-        <v>997</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="2" t="s">
-        <v>998</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="2" t="s">
-        <v>999</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="2" t="s">
-        <v>1000</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="2" t="s">
-        <v>1001</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="2" t="s">
-        <v>1002</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="2" t="s">
-        <v>1003</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="2" t="s">
-        <v>1004</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="2" t="s">
-        <v>1005</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="2" t="s">
-        <v>1006</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="2" t="s">
-        <v>1007</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="2" t="s">
-        <v>1008</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="2" t="s">
-        <v>1009</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="2" t="s">
-        <v>1010</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="2" t="s">
-        <v>1011</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="2" t="s">
-        <v>1012</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="2" t="s">
-        <v>1013</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="2" t="s">
-        <v>1014</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="2" t="s">
-        <v>1015</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="2" t="s">
-        <v>1016</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="2" t="s">
-        <v>1017</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="2" t="s">
-        <v>1018</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="2" t="s">
-        <v>1019</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="2" t="s">
-        <v>1020</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="2" t="s">
-        <v>1021</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="2" t="s">
-        <v>1022</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="2" t="s">
-        <v>1023</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="2" t="s">
-        <v>1024</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="2" t="s">
-        <v>1025</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="2" t="s">
-        <v>1026</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="2" t="s">
-        <v>1027</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="2" t="s">
-        <v>1028</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="2" t="s">
-        <v>1029</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="2" t="s">
-        <v>1030</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="2" t="s">
-        <v>1031</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="2" t="s">
-        <v>1032</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="2" t="s">
-        <v>1033</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
